--- a/logaritmo/TABELA DE POTENCIA.xlsx
+++ b/logaritmo/TABELA DE POTENCIA.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\ESTUDOS\DevMedia\logaritmo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE686533-4AAC-4D1D-8CB4-1E556E981979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E713A5-F9BA-471F-A96B-7607F5D904FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BDDF5E31-1A9C-4CE3-A263-267FF9AA6C26}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BDDF5E31-1A9C-4CE3-A263-267FF9AA6C26}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -394,14 +399,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -416,12 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -429,10 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -466,9 +462,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -506,7 +502,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -612,7 +608,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -754,7 +750,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -768,77 +764,77 @@
       <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:18" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="33"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="26"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="19"/>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="15"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="21"/>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="16"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="17"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="1">
         <v>0</v>
       </c>
@@ -878,17 +874,17 @@
       <c r="Q4" s="1">
         <v>12</v>
       </c>
-      <c r="R4" s="23"/>
+      <c r="R4" s="19"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="18"/>
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="1">
         <f>$C$5^E4</f>
         <v>1</v>
@@ -941,61 +937,61 @@
         <f t="shared" ref="Q5" si="10">$C$5^Q4</f>
         <v>531441</v>
       </c>
-      <c r="R5" s="23"/>
+      <c r="R5" s="19"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="21"/>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="17"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="21"/>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="17"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="16">
+      <c r="C8" s="27"/>
+      <c r="D8" s="2">
         <v>243</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>3</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1005,59 +1001,39 @@
         <f>LOG(D8,F8)</f>
         <v>4.9999999999999991</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="21"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="17"/>
     </row>
-    <row r="9" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="30"/>
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="23"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="10"/>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1065,7 +1041,7 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B8:C8"/>
   </mergeCells>
-  <conditionalFormatting sqref="P7 O8">
+  <conditionalFormatting sqref="O8 P7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
